--- a/branches/main/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/main/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T07:57:23+00:00</t>
+    <t>2021-10-01T08:08:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/main/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:08:42+00:00</t>
+    <t>2021-10-01T08:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/main/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:12:33+00:00</t>
+    <t>2022-06-22T18:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/main/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-22T18:40:24+00:00</t>
+    <t>2022-08-17T09:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1919,42 +1919,42 @@
     <col min="1" max="1" width="42.671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="24.3359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="126.98046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="126.984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="159.06640625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="159.0703125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="53.859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="42.671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="55.8046875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="173.13671875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="145.8359375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="145.83984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/branches/main/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/main/StructureDefinition-hiv-arv-treatment.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$73</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="510">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T09:42:33+00:00</t>
+    <t>2022-09-14T08:40:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -284,398 +284,423 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>CarePlan.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>CarePlan.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>CarePlan.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>CarePlan.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>CarePlan.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>CarePlan.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>artStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-casereporting/StructureDefinition/art-status}
+</t>
+  </si>
+  <si>
+    <t>ART Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>CarePlan.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>CarePlan.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>External Ids for this plan</t>
+  </si>
+  <si>
+    <t>Business identifiers assigned to this care plan by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>Allows identification of the care plan as it is known by various participating systems and in a way that remains consistent across servers.</t>
+  </si>
+  <si>
+    <t>Request.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PTH-3</t>
+  </si>
+  <si>
+    <t>CarePlan.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(PlanDefinition|Questionnaire|Measure|ActivityDefinition|OperationDefinition)
+</t>
+  </si>
+  <si>
+    <t>Instantiates FHIR protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to a FHIR-defined protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target</t>
+  </si>
+  <si>
+    <t>CarePlan.instantiatesUri</t>
+  </si>
+  <si>
+    <t>Instantiates external protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to an externally maintained protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan.</t>
+  </si>
+  <si>
+    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesUri</t>
+  </si>
+  <si>
+    <t>CarePlan.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan)
+</t>
+  </si>
+  <si>
+    <t>Fulfills CarePlan</t>
+  </si>
+  <si>
+    <t>A care plan that is fulfilled in whole or in part by this care plan.</t>
+  </si>
+  <si>
+    <t>Allows tracing of the care plan and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Request.basedOn</t>
+  </si>
+  <si>
+    <t>CarePlan.replaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supersedes
+</t>
+  </si>
+  <si>
+    <t>CarePlan replaced by this CarePlan</t>
+  </si>
+  <si>
+    <t>Completed or terminated care plan whose function is taken by this new care plan.</t>
+  </si>
+  <si>
+    <t>The replacement could be because the initial care plan was immediately rejected (due to an issue) or because the previous care plan was completed, but the need for the action described by the care plan remains ongoing.</t>
+  </si>
+  <si>
+    <t>Allows tracing the continuation of a therapy or administrative process instantiated through multiple care plans.</t>
+  </si>
+  <si>
+    <t>Request.replaces</t>
+  </si>
+  <si>
+    <t>CarePlan.partOf</t>
+  </si>
+  <si>
+    <t>Part of referenced CarePlan</t>
+  </si>
+  <si>
+    <t>A larger care plan of which this particular care plan is a component or step.</t>
+  </si>
+  <si>
+    <t>Each care plan is an independent request, such that having a care plan be part of another care plan can cause issues with cascading statuses.  As such, this element is still being discussed.</t>
+  </si>
+  <si>
+    <t>CarePlan.status</t>
+  </si>
+  <si>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>Indicates whether the plan is currently being acted upon, represents future intentions or is now a historical record.</t>
+  </si>
+  <si>
+    <t>The unknown code is not to be used to convey other statuses.  The unknown code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the care plan.
+This element is labeled as a modifier because the status contains the code entered-in-error that marks the plan as not currently valid.</t>
+  </si>
+  <si>
+    <t>Allows clinicians to determine whether the plan is actionable or not.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status {uses different ValueSet}</t>
+  </si>
+  <si>
+    <t>.statusCode planned = new active = active completed = completed</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>PTH-5</t>
+  </si>
+  <si>
+    <t>CarePlan.intent</t>
+  </si>
+  <si>
+    <t>proposal | plan | order | option</t>
+  </si>
+  <si>
+    <t>Indicates the level of authority/intentionality associated with the care plan and where the care plan fits into the workflow chain.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
+  </si>
+  <si>
+    <t>Proposals/recommendations, plans and orders all use the same structure and can exist in the same fulfillment chain.</t>
+  </si>
+  <si>
+    <t>Codes indicating the degree of authority/intentionality associated with a care plan.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-intent|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.intent</t>
+  </si>
+  <si>
+    <t>CarePlan.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Type of plan</t>
+  </si>
+  <si>
+    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", "wellness plan", etc.</t>
+  </si>
+  <si>
+    <t>There may be multiple axes of categorization and one plan may serve multiple purposes.  In some cases, this may be redundant with references to CarePlan.concern.</t>
+  </si>
+  <si>
+    <t>Used for filtering what plan(s) are retrieved and displayed to different types of users.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-category</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>CarePlan.title</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>CarePlan.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>CarePlan.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>CarePlan.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>CarePlan.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>CarePlan.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>CarePlan.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>CarePlan.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>CarePlan.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>External Ids for this plan</t>
-  </si>
-  <si>
-    <t>Business identifiers assigned to this care plan by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
-  </si>
-  <si>
-    <t>Allows identification of the care plan as it is known by various participating systems and in a way that remains consistent across servers.</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PTH-3</t>
-  </si>
-  <si>
-    <t>CarePlan.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(PlanDefinition|Questionnaire|Measure|ActivityDefinition|OperationDefinition)
-</t>
-  </si>
-  <si>
-    <t>Instantiates FHIR protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to a FHIR-defined protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target</t>
-  </si>
-  <si>
-    <t>CarePlan.instantiatesUri</t>
-  </si>
-  <si>
-    <t>Instantiates external protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to an externally maintained protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan.</t>
-  </si>
-  <si>
-    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesUri</t>
-  </si>
-  <si>
-    <t>CarePlan.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan)
-</t>
-  </si>
-  <si>
-    <t>Fulfills CarePlan</t>
-  </si>
-  <si>
-    <t>A care plan that is fulfilled in whole or in part by this care plan.</t>
-  </si>
-  <si>
-    <t>Allows tracing of the care plan and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Request.basedOn</t>
-  </si>
-  <si>
-    <t>CarePlan.replaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">supersedes
-</t>
-  </si>
-  <si>
-    <t>CarePlan replaced by this CarePlan</t>
-  </si>
-  <si>
-    <t>Completed or terminated care plan whose function is taken by this new care plan.</t>
-  </si>
-  <si>
-    <t>The replacement could be because the initial care plan was immediately rejected (due to an issue) or because the previous care plan was completed, but the need for the action described by the care plan remains ongoing.</t>
-  </si>
-  <si>
-    <t>Allows tracing the continuation of a therapy or administrative process instantiated through multiple care plans.</t>
-  </si>
-  <si>
-    <t>Request.replaces</t>
-  </si>
-  <si>
-    <t>CarePlan.partOf</t>
-  </si>
-  <si>
-    <t>Part of referenced CarePlan</t>
-  </si>
-  <si>
-    <t>A larger care plan of which this particular care plan is a component or step.</t>
-  </si>
-  <si>
-    <t>Each care plan is an independent request, such that having a care plan be part of another care plan can cause issues with cascading statuses.  As such, this element is still being discussed.</t>
-  </si>
-  <si>
-    <t>CarePlan.status</t>
-  </si>
-  <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>Indicates whether the plan is currently being acted upon, represents future intentions or is now a historical record.</t>
-  </si>
-  <si>
-    <t>The unknown code is not to be used to convey other statuses.  The unknown code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the care plan.
-This element is labeled as a modifier because the status contains the code entered-in-error that marks the plan as not currently valid.</t>
-  </si>
-  <si>
-    <t>Allows clinicians to determine whether the plan is actionable or not.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status {uses different ValueSet}</t>
-  </si>
-  <si>
-    <t>.statusCode planned = new active = active completed = completed</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>PTH-5</t>
-  </si>
-  <si>
-    <t>CarePlan.intent</t>
-  </si>
-  <si>
-    <t>proposal | plan | order | option</t>
-  </si>
-  <si>
-    <t>Indicates the level of authority/intentionality associated with the care plan and where the care plan fits into the workflow chain.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
-  </si>
-  <si>
-    <t>Proposals/recommendations, plans and orders all use the same structure and can exist in the same fulfillment chain.</t>
-  </si>
-  <si>
-    <t>Codes indicating the degree of authority/intentionality associated with a care plan.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-intent|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.intent</t>
-  </si>
-  <si>
-    <t>CarePlan.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Type of plan</t>
-  </si>
-  <si>
-    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", "wellness plan", etc.</t>
-  </si>
-  <si>
-    <t>There may be multiple axes of categorization and one plan may serve multiple purposes.  In some cases, this may be redundant with references to CarePlan.concern.</t>
-  </si>
-  <si>
-    <t>Used for filtering what plan(s) are retrieved and displayed to different types of users.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-category</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>CarePlan.title</t>
-  </si>
-  <si>
     <t>Human-friendly name for the care plan</t>
   </si>
   <si>
@@ -807,17 +832,13 @@
     <t>CarePlan.period.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -1194,12 +1215,6 @@
     <t>CarePlan.activity.detail.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
     <t>artRegimenLine</t>
   </si>
   <si>
@@ -1208,10 +1223,6 @@
   </si>
   <si>
     <t>ART Regimen Line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.modifierExtension</t>
@@ -1425,10 +1436,6 @@
     <t>CarePlan.activity.detail.scheduled[x]</t>
   </si>
   <si>
-    <t>Timing
-Periodstring</t>
-  </si>
-  <si>
     <t>When activity is to occur</t>
   </si>
   <si>
@@ -1438,7 +1445,29 @@
     <t>Allows prompting for activities and detection of missed planned activities.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>TQ1</t>
+  </si>
+  <si>
+    <t>scheduledPeriod</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.scheduled[x].id</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.scheduled[x].extension</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.scheduled[x].start</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.scheduled[x].end</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.location</t>
@@ -1504,13 +1533,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t>.participation[typeCode=PRD].role</t>
@@ -1907,7 +1929,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM67"/>
+  <dimension ref="A1:AM73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1916,7 +1938,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.3359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="24.3359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2855,11 +2877,11 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>78</v>
@@ -2874,17 +2896,15 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>79</v>
@@ -2921,16 +2941,14 @@
         <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>136</v>
@@ -2951,7 +2969,7 @@
         <v>79</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>79</v>
@@ -2960,45 +2978,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>79</v>
       </c>
@@ -3046,7 +3062,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -3055,7 +3071,7 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>137</v>
@@ -3064,7 +3080,7 @@
         <v>79</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>79</v>
@@ -3075,11 +3091,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3092,25 +3108,25 @@
         <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>79</v>
@@ -3159,7 +3175,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3171,24 +3187,24 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3211,16 +3227,20 @@
         <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>79</v>
       </c>
@@ -3268,7 +3288,7 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3283,16 +3303,16 @@
         <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="13" hidden="true">
@@ -3320,17 +3340,15 @@
         <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M13" t="s" s="2">
         <v>162</v>
       </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>79</v>
@@ -3397,7 +3415,7 @@
         <v>163</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>79</v>
@@ -3408,11 +3426,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3431,18 +3449,18 @@
         <v>87</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" t="s" s="2">
-        <v>169</v>
-      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>79</v>
       </c>
@@ -3490,7 +3508,7 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3505,10 +3523,10 @@
         <v>98</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>79</v>
@@ -3519,11 +3537,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3542,7 +3560,7 @@
         <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>173</v>
@@ -3550,11 +3568,9 @@
       <c r="L15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="M15" s="2"/>
+      <c r="N15" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>79</v>
@@ -3603,7 +3619,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3618,7 +3634,7 @@
         <v>98</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>79</v>
@@ -3632,11 +3648,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3655,7 +3671,7 @@
         <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>179</v>
@@ -3666,7 +3682,9 @@
       <c r="M16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="N16" s="2"/>
+      <c r="N16" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>79</v>
       </c>
@@ -3714,7 +3732,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3729,7 +3747,7 @@
         <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>79</v>
@@ -3743,7 +3761,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3751,35 +3769,33 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3803,37 +3819,37 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>182</v>
-      </c>
       <c r="AF17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
@@ -3842,21 +3858,21 @@
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3882,16 +3898,16 @@
         <v>106</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -3916,13 +3932,13 @@
         <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>79</v>
@@ -3940,7 +3956,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>86</v>
@@ -3955,21 +3971,21 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3977,34 +3993,34 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -4029,13 +4045,13 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
@@ -4053,13 +4069,13 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>79</v>
@@ -4068,13 +4084,13 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -4082,7 +4098,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4093,7 +4109,7 @@
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
@@ -4105,16 +4121,20 @@
         <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4138,13 +4158,13 @@
         <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>79</v>
@@ -4162,13 +4182,13 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
@@ -4183,7 +4203,7 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
@@ -4191,7 +4211,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4214,18 +4234,16 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>218</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" t="s" s="2">
-        <v>217</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4273,7 +4291,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4294,7 +4312,7 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
@@ -4302,15 +4320,15 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>86</v>
@@ -4325,7 +4343,7 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>222</v>
@@ -4334,7 +4352,9 @@
         <v>223</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4382,10 +4402,10 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>86</v>
@@ -4397,29 +4417,29 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="AM22" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>86</v>
@@ -4434,17 +4454,15 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>232</v>
-      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4493,10 +4511,10 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -4508,25 +4526,25 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>236</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4545,20 +4563,18 @@
         <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>243</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4606,7 +4622,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4621,25 +4637,25 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4655,19 +4671,23 @@
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>246</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4715,7 +4735,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4727,35 +4747,35 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>252</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -4767,17 +4787,15 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>133</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -4814,16 +4832,16 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>258</v>
@@ -4832,19 +4850,19 @@
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>79</v>
@@ -4853,32 +4871,32 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>260</v>
+        <v>131</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>261</v>
@@ -4887,7 +4905,7 @@
         <v>262</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>263</v>
+        <v>146</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4925,16 +4943,16 @@
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>264</v>
@@ -4943,30 +4961,30 @@
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="28" hidden="true">
-      <c r="A28" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4974,13 +4992,13 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -4989,24 +5007,22 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P28" t="s" s="2">
-        <v>272</v>
-      </c>
+      <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5050,7 +5066,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5059,7 +5075,7 @@
         <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>98</v>
@@ -5068,22 +5084,22 @@
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5102,20 +5118,24 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="Q29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5159,7 +5179,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5168,31 +5188,31 @@
         <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5211,17 +5231,15 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>287</v>
-      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5270,7 +5288,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5285,13 +5303,13 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5299,7 +5317,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5310,7 +5328,7 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5319,10 +5337,10 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>291</v>
@@ -5381,13 +5399,13 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -5396,13 +5414,13 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5410,7 +5428,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5433,18 +5451,18 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
         <v>298</v>
       </c>
+      <c r="M32" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5492,7 +5510,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5507,13 +5525,13 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5521,7 +5539,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5541,22 +5559,20 @@
         <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" s="2"/>
+      <c r="N33" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5605,7 +5621,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5620,21 +5636,21 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5654,22 +5670,22 @@
         <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -5718,7 +5734,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5733,21 +5749,21 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5770,19 +5786,19 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -5831,7 +5847,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5846,21 +5862,21 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5868,13 +5884,13 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -5883,17 +5899,19 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -5942,7 +5960,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5954,24 +5972,24 @@
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AJ36" t="s" s="2">
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" hidden="true">
-      <c r="A37" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5979,13 +5997,13 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -5994,16 +6012,18 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>333</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>249</v>
+        <v>334</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>250</v>
+        <v>335</v>
       </c>
       <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6051,25 +6071,25 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>251</v>
+        <v>332</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>252</v>
+        <v>339</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
@@ -6080,18 +6100,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>79</v>
@@ -6103,17 +6123,15 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>133</v>
+        <v>256</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6168,19 +6186,19 @@
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>79</v>
@@ -6191,11 +6209,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>337</v>
+        <v>143</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6208,26 +6226,24 @@
         <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>338</v>
+        <v>261</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>339</v>
+        <v>262</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6275,7 +6291,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>340</v>
+        <v>264</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6293,7 +6309,7 @@
         <v>79</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>129</v>
+        <v>259</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>79</v>
@@ -6304,11 +6320,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6321,24 +6337,26 @@
         <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6362,31 +6380,31 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE40" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6398,13 +6416,13 @@
         <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>79</v>
@@ -6413,7 +6431,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>347</v>
       </c>
@@ -6426,10 +6444,10 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6438,7 +6456,7 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>348</v>
@@ -6449,9 +6467,7 @@
       <c r="M41" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="N41" t="s" s="2">
-        <v>351</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6475,13 +6491,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6514,10 +6530,10 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
@@ -6528,7 +6544,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6551,19 +6567,19 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -6612,7 +6628,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6627,21 +6643,21 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6652,7 +6668,7 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -6664,19 +6680,19 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -6725,36 +6741,36 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6762,13 +6778,13 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -6777,15 +6793,17 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
         <v>373</v>
       </c>
@@ -6836,7 +6854,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6845,16 +6863,16 @@
         <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
@@ -6863,9 +6881,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6873,13 +6891,13 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -6888,16 +6906,18 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>333</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>249</v>
+        <v>377</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>250</v>
+        <v>378</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -6945,7 +6965,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>251</v>
+        <v>376</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6954,16 +6974,16 @@
         <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>252</v>
+        <v>380</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>79</v>
@@ -6974,7 +6994,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6982,11 +7002,11 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F46" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F46" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
       </c>
@@ -6997,13 +7017,13 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>377</v>
+        <v>256</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>378</v>
+        <v>257</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7042,14 +7062,16 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AB46" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>258</v>
@@ -7058,19 +7080,19 @@
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>79</v>
@@ -7079,13 +7101,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7094,10 +7114,10 @@
         <v>86</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7106,13 +7126,13 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>380</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>381</v>
+        <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>378</v>
+        <v>133</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7151,19 +7171,17 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7172,7 +7190,7 @@
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>382</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>137</v>
@@ -7190,45 +7208,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B48" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>337</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>132</v>
+        <v>384</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7276,7 +7292,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>340</v>
+        <v>264</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7285,7 +7301,7 @@
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>137</v>
@@ -7294,7 +7310,7 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>79</v>
@@ -7305,40 +7321,42 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>385</v>
+        <v>344</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="N49" t="s" s="2">
-        <v>387</v>
+        <v>147</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7348,7 +7366,7 @@
         <v>79</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>79</v>
@@ -7363,13 +7381,13 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>390</v>
+        <v>79</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -7387,25 +7405,25 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>391</v>
+        <v>129</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>79</v>
@@ -7416,7 +7434,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7427,7 +7445,7 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -7439,17 +7457,17 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>393</v>
+        <v>106</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>155</v>
+        <v>388</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7459,7 +7477,7 @@
         <v>79</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>79</v>
@@ -7474,13 +7492,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -7498,13 +7516,13 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
@@ -7513,10 +7531,10 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>158</v>
+        <v>394</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
@@ -7527,7 +7545,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7550,19 +7568,17 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>100</v>
+        <v>396</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -7611,7 +7627,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7629,7 +7645,7 @@
         <v>163</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
@@ -7640,7 +7656,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7651,7 +7667,7 @@
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>79</v>
@@ -7663,19 +7679,19 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>202</v>
+        <v>100</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>399</v>
+        <v>166</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>400</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>401</v>
+        <v>168</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -7685,7 +7701,7 @@
         <v>79</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>403</v>
+        <v>79</v>
       </c>
       <c r="S52" t="s" s="2">
         <v>79</v>
@@ -7700,13 +7716,13 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>404</v>
+        <v>79</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -7724,13 +7740,13 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
@@ -7739,21 +7755,21 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>406</v>
+        <v>169</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>407</v>
+        <v>164</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7764,7 +7780,7 @@
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
@@ -7776,18 +7792,20 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
@@ -7796,7 +7814,7 @@
         <v>79</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>79</v>
@@ -7811,13 +7829,13 @@
         <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
@@ -7835,13 +7853,13 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
@@ -7850,21 +7868,21 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7887,16 +7905,16 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>417</v>
+        <v>208</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7922,13 +7940,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -7946,7 +7964,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7961,7 +7979,7 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>307</v>
+        <v>418</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
@@ -7975,7 +7993,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7998,18 +8016,18 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>319</v>
+        <v>420</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M55" s="2"/>
-      <c r="N55" t="s" s="2">
-        <v>424</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8057,7 +8075,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8072,10 +8090,10 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>79</v>
@@ -8084,9 +8102,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8094,34 +8112,32 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>106</v>
+        <v>325</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" s="2"/>
+      <c r="N56" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8146,13 +8162,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8170,13 +8186,13 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
@@ -8185,21 +8201,21 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>433</v>
+        <v>330</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8207,33 +8223,35 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8257,13 +8275,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8281,10 +8299,10 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>86</v>
@@ -8296,21 +8314,21 @@
         <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8327,32 +8345,28 @@
         <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="K58" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>445</v>
-      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P58" t="s" s="2">
-        <v>446</v>
-      </c>
+      <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8396,7 +8410,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8411,10 +8425,10 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>79</v>
@@ -8425,7 +8439,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8442,28 +8456,32 @@
         <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="N59" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="Q59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8507,7 +8525,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8522,21 +8540,21 @@
         <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>244</v>
+        <v>450</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>245</v>
+        <v>451</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8559,19 +8577,17 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>456</v>
+        <v>246</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8608,19 +8624,17 @@
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8635,23 +8649,25 @@
         <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>461</v>
+        <v>252</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="C61" t="s" s="2">
         <v>79</v>
       </c>
@@ -8660,7 +8676,7 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -8672,19 +8688,17 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>464</v>
+        <v>246</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -8733,13 +8747,13 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
@@ -8748,21 +8762,21 @@
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>468</v>
+        <v>251</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>469</v>
+        <v>252</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8770,7 +8784,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>86</v>
@@ -8785,13 +8799,13 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>472</v>
+        <v>256</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>473</v>
+        <v>257</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8818,29 +8832,31 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>474</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AB62" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>477</v>
+        <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>471</v>
+        <v>258</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8852,40 +8868,38 @@
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>478</v>
+        <v>259</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -8894,15 +8908,17 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>472</v>
+        <v>261</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -8927,64 +8943,64 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>474</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>471</v>
+        <v>264</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>478</v>
+        <v>259</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9000,21 +9016,21 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>483</v>
+        <v>266</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>484</v>
+        <v>267</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9062,7 +9078,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>481</v>
+        <v>270</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9071,7 +9087,7 @@
         <v>86</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>98</v>
@@ -9080,18 +9096,18 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>487</v>
+        <v>272</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>488</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9105,29 +9121,33 @@
         <v>86</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>483</v>
+        <v>266</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>490</v>
+        <v>275</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="Q65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9171,7 +9191,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>489</v>
+        <v>279</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9180,7 +9200,7 @@
         <v>86</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>98</v>
@@ -9189,18 +9209,18 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>492</v>
+        <v>280</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>493</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9223,16 +9243,20 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>465</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>495</v>
+        <v>466</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9280,7 +9304,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9298,18 +9322,18 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>361</v>
+        <v>471</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9332,17 +9356,19 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>355</v>
+        <v>473</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="N67" t="s" s="2">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9391,7 +9417,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9406,20 +9432,678 @@
         <v>98</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AB68" s="2"/>
+      <c r="AC68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="AK67" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM67" t="s" s="2">
+      <c r="L72" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J73" t="s" s="2">
         <v>361</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM67">
+  <autoFilter ref="A1:AM73">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9429,7 +10113,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI66">
+  <conditionalFormatting sqref="A2:AI72">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/main/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/main/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:40:35+00:00</t>
+    <t>2022-09-14T09:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/main/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:10:35+00:00</t>
+    <t>2022-09-19T11:28:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/main/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:28:39+00:00</t>
+    <t>2022-09-19T11:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/main/StructureDefinition-hiv-arv-treatment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="511">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:47:22+00:00</t>
+    <t>2022-10-06T14:49:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1436,6 +1436,10 @@
     <t>CarePlan.activity.detail.scheduled[x]</t>
   </si>
   <si>
+    <t>Timing
+Periodstring</t>
+  </si>
+  <si>
     <t>When activity is to occur</t>
   </si>
   <si>
@@ -1449,9 +1453,6 @@
 </t>
   </si>
   <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>TQ1</t>
   </si>
   <si>
@@ -1533,6 +1534,9 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>.participation[typeCode=PRD].role</t>
@@ -8577,17 +8581,17 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>246</v>
+        <v>453</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8624,14 +8628,14 @@
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>457</v>
+        <v>135</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>452</v>
@@ -8691,14 +8695,14 @@
         <v>246</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9514,14 +9518,14 @@
         <v>79</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AB68" s="2"/>
       <c r="AC68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="AE68" t="s" s="2">
         <v>480</v>
@@ -9542,13 +9546,13 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="69">
@@ -9556,7 +9560,7 @@
         <v>480</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>79</v>
@@ -9653,22 +9657,22 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9687,17 +9691,17 @@
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -9746,7 +9750,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9764,18 +9768,18 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9798,13 +9802,13 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9855,7 +9859,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9873,18 +9877,18 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9910,10 +9914,10 @@
         <v>218</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9964,7 +9968,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9982,7 +9986,7 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>79</v>
@@ -9993,7 +9997,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10019,14 +10023,14 @@
         <v>361</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10075,7 +10079,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10090,7 +10094,7 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>366</v>
